--- a/Competition/data/Catapult.xlsx
+++ b/Competition/data/Catapult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461A4A9-291F-428E-8C77-29BE8F4A7DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A5D96A-9568-43C9-88F6-ABF54CF41CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投石机目标</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,7 +512,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,27 +524,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>320</v>
@@ -566,16 +555,16 @@
       <c r="D2" s="3">
         <v>400</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>370</v>
@@ -586,16 +575,16 @@
       <c r="D3" s="3">
         <v>730</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>320</v>
@@ -606,16 +595,16 @@
       <c r="D4" s="3">
         <v>630</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>400</v>
@@ -626,16 +615,16 @@
       <c r="D5" s="3">
         <v>370</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>290</v>
@@ -646,16 +635,16 @@
       <c r="D6" s="3">
         <v>310</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>240</v>
@@ -666,16 +655,16 @@
       <c r="D7" s="3">
         <v>390</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>230</v>
@@ -686,16 +675,16 @@
       <c r="D8" s="3">
         <v>470</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>250</v>
@@ -706,16 +695,16 @@
       <c r="D9" s="3">
         <v>540</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>300</v>
@@ -726,16 +715,16 @@
       <c r="D10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>300</v>
@@ -746,16 +735,16 @@
       <c r="D11" s="3">
         <v>450</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>150</v>
@@ -766,16 +755,16 @@
       <c r="D12" s="3">
         <v>480</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>140</v>
@@ -786,16 +775,16 @@
       <c r="D13" s="3">
         <v>780</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>100</v>
@@ -806,16 +795,16 @@
       <c r="D14" s="3">
         <v>660</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>100</v>
@@ -826,16 +815,16 @@
       <c r="D15" s="3">
         <v>430</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>190</v>
@@ -846,16 +835,16 @@
       <c r="D16" s="3">
         <v>480</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
         <v>180</v>
@@ -866,16 +855,16 @@
       <c r="D17" s="3">
         <v>220</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>0</v>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>190</v>
@@ -886,16 +875,16 @@
       <c r="D18" s="3">
         <v>190</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>100</v>
@@ -906,16 +895,16 @@
       <c r="D19" s="3">
         <v>210</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
+      <c r="E19" s="3">
+        <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3">
         <v>150</v>
@@ -926,16 +915,16 @@
       <c r="D20" s="3">
         <v>390</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3">
         <v>170</v>
@@ -946,15 +935,16 @@
       <c r="D21" s="3">
         <v>750</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
+      <c r="E21" s="3">
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competition/data/Catapult.xlsx
+++ b/Competition/data/Catapult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A5D96A-9568-43C9-88F6-ABF54CF41CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565801B-25C2-4F2E-94CC-BA8E4176610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,9 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_value</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,11 +218,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -229,6 +243,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -522,7 +537,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +556,11 @@
       <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -561,8 +579,11 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -581,8 +602,11 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -601,8 +625,11 @@
       <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -621,8 +648,11 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -641,8 +671,11 @@
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -661,8 +694,11 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -681,8 +717,11 @@
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -701,8 +740,11 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -721,8 +763,11 @@
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -741,8 +786,11 @@
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -761,8 +809,11 @@
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -781,8 +832,11 @@
       <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -801,8 +855,11 @@
       <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -821,8 +878,11 @@
       <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -841,8 +901,11 @@
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -861,8 +924,11 @@
       <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -881,8 +947,11 @@
       <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -901,8 +970,11 @@
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -921,8 +993,11 @@
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -940,6 +1015,9 @@
       </c>
       <c r="F21" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="G21" s="5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Competition/data/Catapult.xlsx
+++ b/Competition/data/Catapult.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565801B-25C2-4F2E-94CC-BA8E4176610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +151,13 @@
   </si>
   <si>
     <t>idx_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -243,10 +243,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
       <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -579,7 +582,7 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>11</v>
       </c>
     </row>
@@ -602,7 +605,7 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>12</v>
       </c>
     </row>
@@ -625,7 +628,7 @@
       <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>13</v>
       </c>
     </row>
@@ -648,7 +651,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>14</v>
       </c>
     </row>
@@ -671,7 +674,7 @@
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>15</v>
       </c>
     </row>
@@ -694,7 +697,7 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>16</v>
       </c>
     </row>
@@ -717,7 +720,7 @@
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>17</v>
       </c>
     </row>
@@ -740,7 +743,7 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>18</v>
       </c>
     </row>
@@ -763,7 +766,7 @@
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>19</v>
       </c>
     </row>
@@ -786,7 +789,7 @@
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>20</v>
       </c>
     </row>
@@ -809,7 +812,7 @@
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>21</v>
       </c>
     </row>
@@ -832,7 +835,7 @@
       <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>22</v>
       </c>
     </row>
@@ -855,7 +858,7 @@
       <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>23</v>
       </c>
     </row>
@@ -878,7 +881,7 @@
       <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>24</v>
       </c>
     </row>
@@ -901,7 +904,7 @@
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>25</v>
       </c>
     </row>
@@ -924,7 +927,7 @@
       <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>26</v>
       </c>
     </row>
@@ -947,7 +950,7 @@
       <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>27</v>
       </c>
     </row>
@@ -970,7 +973,7 @@
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>28</v>
       </c>
     </row>
@@ -993,7 +996,7 @@
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <v>29</v>
       </c>
     </row>
@@ -1016,7 +1019,7 @@
       <c r="F21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>30</v>
       </c>
     </row>

--- a/Competition/data/Catapult.xlsx
+++ b/Competition/data/Catapult.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA45392-0212-4DAA-B2DD-9BC66108726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="2856" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3840" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,13 +244,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
